--- a/BDD/BDD_Discotheque.xlsx
+++ b/BDD/BDD_Discotheque.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02474ED2-866F-4039-BBB4-6D622ED400C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -75,11 +62,17 @@
   <si>
     <t>+ 12.73 x - 127.6 x + 613.3</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +92,7 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,627 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Nocivité</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>44927</v>
-          </cell>
-          <cell r="B2">
-            <v>3</v>
-          </cell>
-          <cell r="C2">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44934</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44941</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44948</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>44955</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>44962</v>
-          </cell>
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-          <cell r="C7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>44969</v>
-          </cell>
-          <cell r="B8">
-            <v>1</v>
-          </cell>
-          <cell r="C8">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>44976</v>
-          </cell>
-          <cell r="B9">
-            <v>1</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>44983</v>
-          </cell>
-          <cell r="B10">
-            <v>1</v>
-          </cell>
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>44990</v>
-          </cell>
-          <cell r="B11">
-            <v>1</v>
-          </cell>
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>44997</v>
-          </cell>
-          <cell r="B12">
-            <v>1</v>
-          </cell>
-          <cell r="C12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>45004</v>
-          </cell>
-          <cell r="B13">
-            <v>2</v>
-          </cell>
-          <cell r="C13">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>45011</v>
-          </cell>
-          <cell r="B14">
-            <v>1</v>
-          </cell>
-          <cell r="C14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>45018</v>
-          </cell>
-          <cell r="B15">
-            <v>1</v>
-          </cell>
-          <cell r="C15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>45025</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>45032</v>
-          </cell>
-          <cell r="B17">
-            <v>1</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>45039</v>
-          </cell>
-          <cell r="B18">
-            <v>1</v>
-          </cell>
-          <cell r="C18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>45046</v>
-          </cell>
-          <cell r="B19">
-            <v>1</v>
-          </cell>
-          <cell r="C19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>45053</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>45060</v>
-          </cell>
-          <cell r="B21">
-            <v>2</v>
-          </cell>
-          <cell r="C21">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>45067</v>
-          </cell>
-          <cell r="B22">
-            <v>1</v>
-          </cell>
-          <cell r="C22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>45074</v>
-          </cell>
-          <cell r="B23">
-            <v>2</v>
-          </cell>
-          <cell r="C23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>45081</v>
-          </cell>
-          <cell r="B24">
-            <v>1</v>
-          </cell>
-          <cell r="C24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>45088</v>
-          </cell>
-          <cell r="B25">
-            <v>2</v>
-          </cell>
-          <cell r="C25">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>45095</v>
-          </cell>
-          <cell r="B26">
-            <v>2</v>
-          </cell>
-          <cell r="C26">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>45102</v>
-          </cell>
-          <cell r="B27">
-            <v>2</v>
-          </cell>
-          <cell r="C27">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>45109</v>
-          </cell>
-          <cell r="B28">
-            <v>3</v>
-          </cell>
-          <cell r="C28">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>45116</v>
-          </cell>
-          <cell r="B29">
-            <v>1</v>
-          </cell>
-          <cell r="C29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>45123</v>
-          </cell>
-          <cell r="B30">
-            <v>3</v>
-          </cell>
-          <cell r="C30">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>45130</v>
-          </cell>
-          <cell r="B31">
-            <v>3</v>
-          </cell>
-          <cell r="C31">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>45137</v>
-          </cell>
-          <cell r="B32">
-            <v>2</v>
-          </cell>
-          <cell r="C32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>45144</v>
-          </cell>
-          <cell r="B33">
-            <v>3</v>
-          </cell>
-          <cell r="C33">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>45151</v>
-          </cell>
-          <cell r="B34">
-            <v>3</v>
-          </cell>
-          <cell r="C34">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>45158</v>
-          </cell>
-          <cell r="B35">
-            <v>3</v>
-          </cell>
-          <cell r="C35">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>45165</v>
-          </cell>
-          <cell r="B36">
-            <v>2</v>
-          </cell>
-          <cell r="C36">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>45172</v>
-          </cell>
-          <cell r="B37">
-            <v>0</v>
-          </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>45179</v>
-          </cell>
-          <cell r="B38">
-            <v>0</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>45186</v>
-          </cell>
-          <cell r="B39">
-            <v>0</v>
-          </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>45193</v>
-          </cell>
-          <cell r="B40">
-            <v>0</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>45200</v>
-          </cell>
-          <cell r="B41">
-            <v>1</v>
-          </cell>
-          <cell r="C41">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>45207</v>
-          </cell>
-          <cell r="B42">
-            <v>1</v>
-          </cell>
-          <cell r="C42">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>45214</v>
-          </cell>
-          <cell r="B43">
-            <v>1</v>
-          </cell>
-          <cell r="C43">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>45221</v>
-          </cell>
-          <cell r="B44">
-            <v>1</v>
-          </cell>
-          <cell r="C44">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>45228</v>
-          </cell>
-          <cell r="B45">
-            <v>1</v>
-          </cell>
-          <cell r="C45">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45235</v>
-          </cell>
-          <cell r="B46">
-            <v>1</v>
-          </cell>
-          <cell r="C46">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>45242</v>
-          </cell>
-          <cell r="B47">
-            <v>1</v>
-          </cell>
-          <cell r="C47">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>45249</v>
-          </cell>
-          <cell r="B48">
-            <v>1</v>
-          </cell>
-          <cell r="C48">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>45256</v>
-          </cell>
-          <cell r="B49">
-            <v>3</v>
-          </cell>
-          <cell r="C49">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>45263</v>
-          </cell>
-          <cell r="B50">
-            <v>1</v>
-          </cell>
-          <cell r="C50">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>45270</v>
-          </cell>
-          <cell r="B51">
-            <v>2</v>
-          </cell>
-          <cell r="C51">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>45277</v>
-          </cell>
-          <cell r="B52">
-            <v>3</v>
-          </cell>
-          <cell r="C52">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>45284</v>
-          </cell>
-          <cell r="B53">
-            <v>3</v>
-          </cell>
-          <cell r="C53">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>45291</v>
-          </cell>
-          <cell r="B54">
-            <v>3</v>
-          </cell>
-          <cell r="C54">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,16 +449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,25 +478,28 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -1144,27 +519,31 @@
       <c r="G2" s="4">
         <v>475.77204890000002</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5">
-        <v>409</v>
+      <c r="H2" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.2</v>
       </c>
       <c r="J2" s="5">
         <v>409</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="5">
+        <v>409</v>
+      </c>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>613.29999999999995</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44934</v>
       </c>
@@ -1185,26 +564,25 @@
         <v>335.67563840000003</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>409</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>386</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>497.8291443</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44941</v>
       </c>
@@ -1225,19 +603,18 @@
         <v>243.222981</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>386</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>227</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>404.33266029999999</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +623,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44948</v>
       </c>
@@ -1267,19 +644,18 @@
         <v>188.16208649999999</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>386</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>130</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>329.64281929999999</v>
       </c>
-      <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +664,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44955</v>
       </c>
@@ -1309,19 +685,18 @@
         <v>161.7711176</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>227</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>98</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>270.91750300000001</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1">
         <v>2</v>
       </c>
@@ -1330,7 +705,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44962</v>
       </c>
@@ -1351,19 +726,18 @@
         <v>156.69706590000001</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>227</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>107</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>225.61776739999999</v>
       </c>
-      <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +746,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44969</v>
       </c>
@@ -1393,26 +767,25 @@
         <v>166.80606330000001</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>130</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>151</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>191.4863411</v>
       </c>
-      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44976</v>
       </c>
@@ -1433,26 +806,25 @@
         <v>187.04480839999999</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>130</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>117</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>166.5270419</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44983</v>
       </c>
@@ -1473,26 +845,25 @@
         <v>213.31259689999999</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>98</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>124</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>148.98509369999999</v>
       </c>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44990</v>
       </c>
@@ -1513,26 +884,25 @@
         <v>242.3434599</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>98</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>115</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>137.32832479999999</v>
       </c>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44997</v>
       </c>
@@ -1553,26 +923,25 @@
         <v>271.5979203</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>107</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>135</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>130.22923</v>
       </c>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45004</v>
       </c>
@@ -1593,26 +962,25 @@
         <v>299.16389179999999</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>107</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>113</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>126.5478787</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45011</v>
       </c>
@@ -1633,26 +1001,25 @@
         <v>323.66625390000002</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>151</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>96</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>125.3156504</v>
       </c>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45018</v>
       </c>
@@ -1673,26 +1040,25 @@
         <v>344.18464979999999</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>151</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>121</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>13</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>125.71978060000001</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45025</v>
       </c>
@@ -1713,26 +1079,25 @@
         <v>360.17906169999998</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>117</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>146</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>14</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>127.08869749999999</v>
       </c>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45032</v>
       </c>
@@ -1753,26 +1118,25 @@
         <v>371.4227325</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>117</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>183</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>128.8781329</v>
       </c>
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45039</v>
       </c>
@@ -1793,26 +1157,25 @@
         <v>377.94201040000002</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>124</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>146</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>16</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>130.6579888</v>
       </c>
-      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45046</v>
       </c>
@@ -1833,26 +1196,25 @@
         <v>379.96270759999999</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>124</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>29</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>132.09994119999999</v>
       </c>
-      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45053</v>
       </c>
@@ -1873,26 +1235,25 @@
         <v>377.86257230000001</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>115</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>71</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>18</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>132.9657641</v>
       </c>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45060</v>
       </c>
@@ -1913,26 +1274,25 @@
         <v>372.12948440000002</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>115</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>44</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>19</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>133.0963543</v>
       </c>
-      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -1953,26 +1313,25 @@
         <v>363.32499999999999</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>135</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>149</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>20</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>132.40144000000001</v>
       </c>
-      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45074</v>
       </c>
@@ -1993,26 +1352,25 @@
         <v>352.05287420000002</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>135</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>112</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>21</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>130.84995559999999</v>
       </c>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45081</v>
       </c>
@@ -2033,26 +1391,25 @@
         <v>338.93220960000002</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>113</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>21</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>22</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>128.46106259999999</v>
       </c>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45088</v>
       </c>
@@ -2073,26 +1430,25 @@
         <v>324.57488380000001</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>113</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>142</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>23</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>125.2958015</v>
       </c>
-      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45095</v>
       </c>
@@ -2113,26 +1469,25 @@
         <v>309.56692320000002</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>96</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>70</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>24</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>121.4493533</v>
       </c>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45102</v>
       </c>
@@ -2153,26 +1508,25 @@
         <v>294.45349900000002</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>96</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>86</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>25</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>117.0438965</v>
       </c>
-      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -2193,26 +1547,25 @@
         <v>279.72723550000001</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>121</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>224</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>26</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>112.2220374</v>
       </c>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45116</v>
       </c>
@@ -2233,26 +1586,25 @@
         <v>265.81952749999999</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>121</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>313</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>27</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>107.1407993</v>
       </c>
-      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45123</v>
       </c>
@@ -2273,26 +1625,25 @@
         <v>253.09457900000001</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>146</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>432</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>28</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>101.9661499</v>
       </c>
-      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45130</v>
       </c>
@@ -2313,26 +1664,25 @@
         <v>241.84588350000001</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>146</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <v>439</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>96.868050920000002</v>
       </c>
-      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45137</v>
       </c>
@@ -2353,26 +1703,25 @@
         <v>232.2948773</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>183</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>418</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>30</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>92.016009999999994</v>
       </c>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45144</v>
       </c>
@@ -2393,26 +1742,25 @@
         <v>224.59151030000001</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>183</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <v>379</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>31</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>87.575118599999996</v>
       </c>
-      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45151</v>
       </c>
@@ -2433,26 +1781,25 @@
         <v>218.81648759999999</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>146</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>374</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>32</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>83.702556659999999</v>
       </c>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45158</v>
       </c>
@@ -2473,26 +1820,25 @@
         <v>214.98494650000001</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>146</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>306</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>33</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>80.544546550000007</v>
       </c>
-      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45165</v>
       </c>
@@ -2513,26 +1859,25 @@
         <v>213.05134670000001</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>29</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>303</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>34</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>78.233738130000006</v>
       </c>
-      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45172</v>
       </c>
@@ -2553,26 +1898,25 @@
         <v>212.915358</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>29</v>
       </c>
-      <c r="J37" s="5">
+      <c r="K37" s="5">
         <v>298</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>35</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>76.88700695</v>
       </c>
-      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45179</v>
       </c>
@@ -2593,26 +1937,25 @@
         <v>214.4285467</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>71</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>89</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>36</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>76.603647429999995</v>
       </c>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45186</v>
       </c>
@@ -2633,26 +1976,25 @@
         <v>217.401667</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>71</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>69</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>37</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>77.463943169999993</v>
       </c>
-      <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45193</v>
       </c>
@@ -2673,26 +2015,25 @@
         <v>221.6123791</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>44</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>62</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>38</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>79.528096270000006</v>
       </c>
-      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45200</v>
       </c>
@@ -2713,26 +2054,25 @@
         <v>226.81322470000001</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>44</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <v>109</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>39</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>82.835497579999995</v>
       </c>
-      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45207</v>
       </c>
@@ -2753,26 +2093,25 @@
         <v>232.73970069999999</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="5">
+      <c r="J42" s="5">
         <v>149</v>
       </c>
-      <c r="J42" s="5">
+      <c r="K42" s="5">
         <v>25</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>40</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>87.404319999999998</v>
       </c>
-      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45214</v>
       </c>
@@ -2793,26 +2132,25 @@
         <v>239.11828600000001</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>149</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="5">
         <v>30</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>41</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>93.231416600000003</v>
       </c>
-      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45221</v>
       </c>
@@ -2833,26 +2171,25 @@
         <v>245.67428380000001</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="5">
+      <c r="J44" s="5">
         <v>112</v>
       </c>
-      <c r="J44" s="5">
+      <c r="K44" s="5">
         <v>116</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>42</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>100.2925058</v>
       </c>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45228</v>
       </c>
@@ -2873,26 +2210,25 @@
         <v>252.13935520000001</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>112</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <v>130</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>43</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>108.5426251</v>
       </c>
-      <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45235</v>
       </c>
@@ -2913,26 +2249,25 @@
         <v>258.25862940000002</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="5">
+      <c r="J46" s="5">
         <v>21</v>
       </c>
-      <c r="J46" s="5">
+      <c r="K46" s="5">
         <v>134</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>44</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>117.91683639999999</v>
       </c>
-      <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45242</v>
       </c>
@@ -2953,26 +2288,25 @@
         <v>263.7972881</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>21</v>
       </c>
-      <c r="J47" s="5">
+      <c r="K47" s="5">
         <v>121</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>45</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>128.331163</v>
       </c>
-      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45249</v>
       </c>
@@ -2993,26 +2327,25 @@
         <v>268.5465317</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>142</v>
       </c>
-      <c r="J48" s="5">
+      <c r="K48" s="5">
         <v>29</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>46</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>139.68374249999999</v>
       </c>
-      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45256</v>
       </c>
@@ -3033,26 +2366,25 @@
         <v>272.32884560000002</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>142</v>
       </c>
-      <c r="J49" s="5">
+      <c r="K49" s="5">
         <v>61</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>47</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>151.85617579999999</v>
       </c>
-      <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45263</v>
       </c>
@@ -3073,26 +2405,25 @@
         <v>275.00249789999998</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>70</v>
       </c>
-      <c r="J50" s="5">
+      <c r="K50" s="5">
         <v>46</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>48</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>164.71505490000001</v>
       </c>
-      <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45270</v>
       </c>
@@ -3113,26 +2444,25 @@
         <v>276.46520750000002</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>70</v>
       </c>
-      <c r="J51" s="5">
+      <c r="K51" s="5">
         <v>126</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>49</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>178.11365190000001</v>
       </c>
-      <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45277</v>
       </c>
@@ -3153,26 +2483,25 @@
         <v>276.65693640000001</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <v>86</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <v>369</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>50</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>191.89375000000001</v>
       </c>
-      <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45284</v>
       </c>
@@ -3193,26 +2522,25 @@
         <v>275.56176749999997</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>86</v>
       </c>
-      <c r="J53" s="5">
+      <c r="K53" s="5">
         <v>469</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>51</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>205.88759959999999</v>
       </c>
-      <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45291</v>
       </c>
@@ -3233,26 +2561,25 @@
         <v>273.20884230000001</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <v>224</v>
       </c>
-      <c r="J54" s="5">
+      <c r="K54" s="5">
         <v>540</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>52</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>219.91998090000001</v>
       </c>
-      <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45298</v>
       </c>
@@ -3271,26 +2598,25 @@
         <v>269.67234380000002</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>224</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>400</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>53</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>233.81035489999999</v>
       </c>
-      <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45305</v>
       </c>
@@ -3309,26 +2635,25 @@
         <v>265.07051949999999</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="5">
+      <c r="J56" s="5">
         <v>313</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>225</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>54</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>247.37508550000001</v>
       </c>
-      <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45312</v>
       </c>
@@ -3347,26 +2672,25 @@
         <v>259.56375170000001</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>313</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>95</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>55</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>260.42971349999999</v>
       </c>
-      <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45319</v>
       </c>
@@ -3385,26 +2709,25 @@
         <v>253.35169339999999</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>432</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>127</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>56</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>272.79126559999997</v>
       </c>
-      <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45326</v>
       </c>
@@ -3423,26 +2746,25 @@
         <v>246.6694971</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>432</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <v>122</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>57</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>284.28057949999999</v>
       </c>
-      <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45333</v>
       </c>
@@ -3461,26 +2783,25 @@
         <v>239.7831784</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <v>439</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <v>129</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>58</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>294.72462789999997</v>
       </c>
-      <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45340</v>
       </c>
@@ -3499,26 +2820,25 @@
         <v>232.98416259999999</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>439</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>131</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>59</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>303.95882230000001</v>
       </c>
-      <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45347</v>
       </c>
@@ -3537,26 +2857,25 @@
         <v>226.58307869999999</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="5">
+      <c r="J62" s="5">
         <v>418</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>131</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>60</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>311.82927999999998</v>
       </c>
-      <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -3575,26 +2894,25 @@
         <v>220.90287090000001</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>418</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>205</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>61</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>318.19503479999997</v>
       </c>
-      <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45361</v>
       </c>
@@ -3613,26 +2931,25 @@
         <v>216.27131360000001</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="5">
+      <c r="J64" s="5">
         <v>379</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>111</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>62</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>322.9301744</v>
       </c>
-      <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45368</v>
       </c>
@@ -3651,26 +2968,25 @@
         <v>213.0130226</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>379</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <v>58</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>63</v>
       </c>
-      <c r="L65" s="1">
+      <c r="M65" s="1">
         <v>325.9258858</v>
       </c>
-      <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45375</v>
       </c>
@@ -3689,26 +3005,25 @@
         <v>211.4410699</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="5">
+      <c r="J66" s="5">
         <v>374</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K66" s="1">
         <v>76</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>64</v>
       </c>
-      <c r="L66" s="1">
+      <c r="M66" s="1">
         <v>327.0923914</v>
       </c>
-      <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45382</v>
       </c>
@@ -3727,26 +3042,25 @@
         <v>211.84831729999999</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1">
+      <c r="J67" s="1">
         <v>374</v>
       </c>
-      <c r="J67" s="1">
+      <c r="K67" s="1">
         <v>87</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>65</v>
       </c>
-      <c r="L67" s="1">
+      <c r="M67" s="1">
         <v>326.3607571</v>
       </c>
-      <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45389</v>
       </c>
@@ -3765,26 +3079,25 @@
         <v>214.4985978</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="5">
+      <c r="J68" s="5">
         <v>306</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <v>159</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>66</v>
       </c>
-      <c r="L68" s="1">
+      <c r="M68" s="1">
         <v>323.68455469999998</v>
       </c>
-      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45396</v>
       </c>
@@ -3803,26 +3116,25 @@
         <v>219.6178816</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>306</v>
       </c>
-      <c r="J69" s="1">
+      <c r="K69" s="1">
         <v>151</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>67</v>
       </c>
-      <c r="L69" s="1">
+      <c r="M69" s="1">
         <v>319.04136039999997</v>
       </c>
-      <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45403</v>
       </c>
@@ -3841,26 +3153,25 @@
         <v>227.3855787</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="5">
+      <c r="J70" s="5">
         <v>303</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K70" s="1">
         <v>149</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>68</v>
       </c>
-      <c r="L70" s="1">
+      <c r="M70" s="1">
         <v>312.4340717</v>
       </c>
-      <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45410</v>
       </c>
@@ -3879,26 +3190,25 @@
         <v>237.92613679999999</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>303</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>189</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>69</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>303.89202399999999</v>
       </c>
-      <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45417</v>
       </c>
@@ -3917,26 +3227,25 @@
         <v>251.30110629999999</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="5">
+      <c r="J72" s="5">
         <v>298</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K72" s="1">
         <v>107</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>70</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>293.47188999999997</v>
       </c>
-      <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45424</v>
       </c>
@@ -3955,26 +3264,25 @@
         <v>267.50185640000001</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>298</v>
       </c>
-      <c r="J73" s="1">
+      <c r="K73" s="1">
         <v>155</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>71</v>
       </c>
-      <c r="L73" s="1">
+      <c r="M73" s="1">
         <v>281.25834270000001</v>
       </c>
-      <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45431</v>
       </c>
@@ -3993,26 +3301,25 @@
         <v>286.44313399999999</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="5">
+      <c r="J74" s="5">
         <v>89</v>
       </c>
-      <c r="J74" s="1">
+      <c r="K74" s="1">
         <v>135</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>72</v>
       </c>
-      <c r="L74" s="1">
+      <c r="M74" s="1">
         <v>267.3644645</v>
       </c>
-      <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45438</v>
       </c>
@@ -4031,26 +3338,25 @@
         <v>307.9576715</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>89</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <v>105</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <v>73</v>
       </c>
-      <c r="L75" s="1">
+      <c r="M75" s="1">
         <v>251.93188430000001</v>
       </c>
-      <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45445</v>
       </c>
@@ -4069,26 +3375,25 @@
         <v>331.79205710000002</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="5">
+      <c r="J76" s="5">
         <v>69</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K76" s="1">
         <v>99</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L76" s="1">
         <v>74</v>
       </c>
-      <c r="L76" s="1">
+      <c r="M76" s="1">
         <v>235.13062500000001</v>
       </c>
-      <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45452</v>
       </c>
@@ -4107,26 +3412,25 @@
         <v>357.60409750000002</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>69</v>
       </c>
-      <c r="J77" s="1">
+      <c r="K77" s="1">
         <v>141</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L77" s="1">
         <v>75</v>
       </c>
-      <c r="L77" s="1">
+      <c r="M77" s="1">
         <v>217.15864260000001</v>
       </c>
-      <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45459</v>
       </c>
@@ -4145,26 +3449,25 @@
         <v>384.96190589999998</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="5">
+      <c r="J78" s="5">
         <v>62</v>
       </c>
-      <c r="J78" s="1">
+      <c r="K78" s="1">
         <v>74</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>76</v>
       </c>
-      <c r="L78" s="1">
+      <c r="M78" s="1">
         <v>198.24103919999999</v>
       </c>
-      <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45466</v>
       </c>
@@ -4183,26 +3486,25 @@
         <v>413.34496819999998</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <v>62</v>
       </c>
-      <c r="J79" s="1">
+      <c r="K79" s="1">
         <v>44</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>77</v>
       </c>
-      <c r="L79" s="1">
+      <c r="M79" s="1">
         <v>178.62893209999999</v>
       </c>
-      <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45473</v>
       </c>
@@ -4221,26 +3523,25 @@
         <v>442.14744400000001</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="5">
+      <c r="J80" s="5">
         <v>109</v>
       </c>
-      <c r="J80" s="1">
+      <c r="K80" s="1">
         <v>127</v>
       </c>
-      <c r="K80" s="1">
+      <c r="L80" s="1">
         <v>78</v>
       </c>
-      <c r="L80" s="1">
+      <c r="M80" s="1">
         <v>158.59796119999999</v>
       </c>
-      <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45480</v>
       </c>
@@ -4259,26 +3560,25 @@
         <v>470.68397390000001</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>109</v>
       </c>
-      <c r="J81" s="1">
+      <c r="K81" s="1">
         <v>163</v>
       </c>
-      <c r="K81" s="1">
+      <c r="L81" s="1">
         <v>79</v>
       </c>
-      <c r="L81" s="1">
+      <c r="M81" s="1">
         <v>138.446415</v>
       </c>
-      <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45487</v>
       </c>
@@ -4297,26 +3597,25 @@
         <v>498.19827479999998</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="5">
+      <c r="J82" s="5">
         <v>25</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K82" s="1">
         <v>234</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>80</v>
       </c>
-      <c r="L82" s="1">
+      <c r="M82" s="1">
         <v>118.49296</v>
       </c>
-      <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45494</v>
       </c>
@@ -4335,26 +3634,25 @@
         <v>523.87481530000002</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="1">
+      <c r="J83" s="1">
         <v>25</v>
       </c>
-      <c r="J83" s="1">
+      <c r="K83" s="1">
         <v>303</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>81</v>
       </c>
-      <c r="L83" s="1">
+      <c r="M83" s="1">
         <v>99.073952879999993</v>
       </c>
-      <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45501</v>
       </c>
@@ -4373,26 +3671,25 @@
         <v>546.85387390000005</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="5">
+      <c r="J84" s="5">
         <v>30</v>
       </c>
-      <c r="J84" s="1">
+      <c r="K84" s="1">
         <v>298</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>82</v>
       </c>
-      <c r="L84" s="1">
+      <c r="M84" s="1">
         <v>80.540318740000004</v>
       </c>
-      <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45508</v>
       </c>
@@ -4411,26 +3708,25 @@
         <v>566.25029640000002</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="1">
+      <c r="J85" s="1">
         <v>30</v>
       </c>
-      <c r="J85" s="1">
+      <c r="K85" s="1">
         <v>357</v>
       </c>
-      <c r="K85" s="1">
+      <c r="L85" s="1">
         <v>83</v>
       </c>
-      <c r="L85" s="1">
+      <c r="M85" s="1">
         <v>63.25397718</v>
       </c>
-      <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45515</v>
       </c>
@@ -4449,26 +3745,25 @@
         <v>581.17627570000002</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="5">
+      <c r="J86" s="5">
         <v>116</v>
       </c>
-      <c r="J86" s="1">
+      <c r="K86" s="1">
         <v>375</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>84</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>47.583798000000002</v>
       </c>
-      <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45522</v>
       </c>
@@ -4487,26 +3782,25 @@
         <v>590.76849159999995</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="1">
+      <c r="J87" s="1">
         <v>116</v>
       </c>
-      <c r="J87" s="1">
+      <c r="K87" s="1">
         <v>322</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>85</v>
       </c>
-      <c r="L87" s="1">
+      <c r="M87" s="1">
         <v>33.901068670000001</v>
       </c>
-      <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45529</v>
       </c>
@@ -4525,26 +3819,25 @@
         <v>594.21995800000002</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="5">
+      <c r="J88" s="5">
         <v>130</v>
       </c>
-      <c r="J88" s="1">
+      <c r="K88" s="1">
         <v>444</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>86</v>
       </c>
-      <c r="L88" s="1">
+      <c r="M88" s="1">
         <v>22.574455390000001</v>
       </c>
-      <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45536</v>
       </c>
@@ -4563,26 +3856,25 @@
         <v>590.8169355</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="1">
+      <c r="J89" s="1">
         <v>130</v>
       </c>
-      <c r="J89" s="1">
+      <c r="K89" s="1">
         <v>378</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>87</v>
       </c>
-      <c r="L89" s="1">
+      <c r="M89" s="1">
         <v>13.96443988</v>
       </c>
-      <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45543</v>
       </c>
@@ -4601,26 +3893,25 @@
         <v>579.9812786</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="5">
+      <c r="J90" s="5">
         <v>134</v>
       </c>
-      <c r="J90" s="1">
+      <c r="K90" s="1">
         <v>336</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>88</v>
       </c>
-      <c r="L90" s="1">
+      <c r="M90" s="1">
         <v>8.4172136799999997</v>
       </c>
-      <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45550</v>
       </c>
@@ -4639,26 +3930,25 @@
         <v>561.31859829999996</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="1">
+      <c r="J91" s="1">
         <v>134</v>
       </c>
-      <c r="J91" s="1">
+      <c r="K91" s="1">
         <v>293</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>89</v>
       </c>
-      <c r="L91" s="1">
+      <c r="M91" s="1">
         <v>6.2580121679999996</v>
       </c>
-      <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45557</v>
       </c>
@@ -4677,26 +3967,25 @@
         <v>534.67263119999996</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="5">
+      <c r="J92" s="5">
         <v>121</v>
       </c>
-      <c r="J92" s="1">
+      <c r="K92" s="1">
         <v>114</v>
       </c>
-      <c r="K92" s="1">
+      <c r="L92" s="1">
         <v>90</v>
       </c>
-      <c r="L92" s="1">
+      <c r="M92" s="1">
         <v>7.7838700000000003</v>
       </c>
-      <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45564</v>
       </c>
@@ -4715,26 +4004,25 @@
         <v>500.18621739999998</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="1">
+      <c r="J93" s="1">
         <v>121</v>
       </c>
-      <c r="J93" s="1">
+      <c r="K93" s="1">
         <v>166</v>
       </c>
-      <c r="K93" s="1">
+      <c r="L93" s="1">
         <v>91</v>
       </c>
-      <c r="L93" s="1">
+      <c r="M93" s="1">
         <v>13.25578017</v>
       </c>
-      <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45571</v>
       </c>
@@ -4753,26 +4041,25 @@
         <v>458.36930080000002</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="5">
+      <c r="J94" s="5">
         <v>29</v>
       </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <v>136</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>92</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="1">
         <v>22.89023851</v>
       </c>
-      <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45578</v>
       </c>
@@ -4791,26 +4078,25 @@
         <v>410.174375</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>29</v>
       </c>
-      <c r="J95" s="1">
+      <c r="K95" s="1">
         <v>96</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>93</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>36.850155749999999</v>
       </c>
-      <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45585</v>
       </c>
@@ -4829,26 +4115,25 @@
         <v>357.07981210000003</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="5">
+      <c r="J96" s="5">
         <v>61</v>
       </c>
-      <c r="J96" s="1">
+      <c r="K96" s="1">
         <v>195</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>94</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>55.235118890000003</v>
       </c>
-      <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45592</v>
       </c>
@@ -4867,26 +4152,25 @@
         <v>301.18151820000003</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="6">
+      <c r="J97" s="6">
         <v>61</v>
       </c>
-      <c r="J97" s="1">
+      <c r="K97" s="1">
         <v>144</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>95</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>78.070984139999993</v>
       </c>
-      <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45599</v>
       </c>
@@ -4905,26 +4189,25 @@
         <v>245.293375</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="5">
+      <c r="J98" s="5">
         <v>46</v>
       </c>
-      <c r="J98" s="1">
+      <c r="K98" s="1">
         <v>101</v>
       </c>
-      <c r="K98" s="1">
+      <c r="L98" s="1">
         <v>96</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="1">
         <v>105.29878309999999</v>
       </c>
-      <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45606</v>
       </c>
@@ -4943,26 +4226,25 @@
         <v>193.05693450000001</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="6">
+      <c r="J99" s="6">
         <v>46</v>
       </c>
-      <c r="J99" s="1">
+      <c r="K99" s="1">
         <v>88</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>97</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>136.7629245</v>
       </c>
-      <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45613</v>
       </c>
@@ -4981,26 +4263,25 @@
         <v>149.06084580000001</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="5">
+      <c r="J100" s="5">
         <v>126</v>
       </c>
-      <c r="J100" s="1">
+      <c r="K100" s="1">
         <v>147</v>
       </c>
-      <c r="K100" s="1">
+      <c r="L100" s="1">
         <v>98</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>172.1986728</v>
       </c>
-      <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45620</v>
       </c>
@@ -5019,26 +4300,25 @@
         <v>118.9705063</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="6">
+      <c r="J101" s="6">
         <v>126</v>
       </c>
-      <c r="J101" s="1">
+      <c r="K101" s="1">
         <v>78</v>
       </c>
-      <c r="K101" s="1">
+      <c r="L101" s="1">
         <v>99</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="1">
         <v>211.21888709999999</v>
       </c>
-      <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45627</v>
       </c>
@@ -5057,26 +4337,25 @@
         <v>109.66843470000001</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="5">
+      <c r="J102" s="5">
         <v>369</v>
       </c>
-      <c r="J102" s="1">
+      <c r="K102" s="1">
         <v>68</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>100</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>253.3</v>
       </c>
-      <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45634</v>
       </c>
@@ -5095,26 +4374,25 @@
         <v>129.4058823</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="6">
+      <c r="J103" s="6">
         <v>369</v>
       </c>
-      <c r="J103" s="1">
+      <c r="K103" s="1">
         <v>176</v>
       </c>
-      <c r="K103" s="1">
+      <c r="L103" s="1">
         <v>101</v>
       </c>
-      <c r="L103" s="1">
+      <c r="M103" s="1">
         <v>297.76722059999997</v>
       </c>
-      <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45641</v>
       </c>
@@ -5133,26 +4411,25 @@
         <v>187.96620250000001</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="I104" s="5">
+      <c r="J104" s="5">
         <v>469</v>
       </c>
-      <c r="J104" s="1">
+      <c r="K104" s="1">
         <v>153</v>
       </c>
-      <c r="K104" s="1">
+      <c r="L104" s="1">
         <v>102</v>
       </c>
-      <c r="L104" s="1">
+      <c r="M104" s="1">
         <v>343.77894270000002</v>
       </c>
-      <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45648</v>
       </c>
@@ -5171,26 +4448,25 @@
         <v>296.84051410000001</v>
       </c>
       <c r="H105" s="1"/>
-      <c r="I105" s="6">
+      <c r="J105" s="6">
         <v>469</v>
       </c>
-      <c r="J105" s="1">
+      <c r="K105" s="1">
         <v>396</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L105" s="1">
         <v>103</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="1">
         <v>390.31033960000002</v>
       </c>
-      <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45655</v>
       </c>
@@ -5209,19 +4485,18 @@
         <v>469.41620330000001</v>
       </c>
       <c r="H106" s="1"/>
-      <c r="I106" s="5">
+      <c r="J106" s="5">
         <v>540</v>
       </c>
-      <c r="J106" s="1">
+      <c r="K106" s="1">
         <v>463</v>
       </c>
-      <c r="K106" s="1">
+      <c r="L106" s="1">
         <v>104</v>
       </c>
-      <c r="L106" s="1">
+      <c r="M106" s="1">
         <v>436.13612890000002</v>
       </c>
-      <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>

--- a/BDD/BDD_Discotheque.xlsx
+++ b/BDD/BDD_Discotheque.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02474ED2-866F-4039-BBB4-6D622ED400C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C850A6-73D8-4FBF-810D-9748199A7ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C75" zoomScale="58" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,7 +563,12 @@
       <c r="G3" s="4">
         <v>335.67563840000003</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J3" s="1">
         <v>409</v>
       </c>
@@ -602,7 +607,12 @@
       <c r="G4" s="4">
         <v>243.222981</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J4" s="5">
         <v>386</v>
       </c>
@@ -643,7 +653,12 @@
       <c r="G5" s="4">
         <v>188.16208649999999</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J5" s="1">
         <v>386</v>
       </c>
@@ -684,7 +699,12 @@
       <c r="G6" s="4">
         <v>161.7711176</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J6" s="5">
         <v>227</v>
       </c>
@@ -725,7 +745,12 @@
       <c r="G7" s="4">
         <v>156.69706590000001</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J7" s="1">
         <v>227</v>
       </c>
@@ -766,7 +791,12 @@
       <c r="G8" s="4">
         <v>166.80606330000001</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J8" s="5">
         <v>130</v>
       </c>
@@ -805,7 +835,12 @@
       <c r="G9" s="4">
         <v>187.04480839999999</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J9" s="1">
         <v>130</v>
       </c>
@@ -844,7 +879,12 @@
       <c r="G10" s="4">
         <v>213.31259689999999</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J10" s="5">
         <v>98</v>
       </c>
@@ -883,7 +923,12 @@
       <c r="G11" s="4">
         <v>242.3434599</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J11" s="1">
         <v>98</v>
       </c>
@@ -922,7 +967,12 @@
       <c r="G12" s="4">
         <v>271.5979203</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J12" s="5">
         <v>107</v>
       </c>
@@ -961,7 +1011,12 @@
       <c r="G13" s="4">
         <v>299.16389179999999</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J13" s="1">
         <v>107</v>
       </c>
@@ -1000,7 +1055,12 @@
       <c r="G14" s="4">
         <v>323.66625390000002</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J14" s="5">
         <v>151</v>
       </c>
@@ -1039,7 +1099,12 @@
       <c r="G15" s="4">
         <v>344.18464979999999</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J15" s="1">
         <v>151</v>
       </c>
@@ -1078,7 +1143,12 @@
       <c r="G16" s="4">
         <v>360.17906169999998</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J16" s="5">
         <v>117</v>
       </c>
@@ -1117,7 +1187,12 @@
       <c r="G17" s="4">
         <v>371.4227325</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J17" s="1">
         <v>117</v>
       </c>
@@ -1156,7 +1231,12 @@
       <c r="G18" s="4">
         <v>377.94201040000002</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J18" s="5">
         <v>124</v>
       </c>
@@ -1195,7 +1275,12 @@
       <c r="G19" s="4">
         <v>379.96270759999999</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J19" s="1">
         <v>124</v>
       </c>
@@ -1234,7 +1319,12 @@
       <c r="G20" s="4">
         <v>377.86257230000001</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J20" s="5">
         <v>115</v>
       </c>
@@ -1273,7 +1363,12 @@
       <c r="G21" s="4">
         <v>372.12948440000002</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J21" s="1">
         <v>115</v>
       </c>
@@ -1312,7 +1407,12 @@
       <c r="G22" s="4">
         <v>363.32499999999999</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J22" s="5">
         <v>135</v>
       </c>
@@ -1351,7 +1451,12 @@
       <c r="G23" s="4">
         <v>352.05287420000002</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J23" s="1">
         <v>135</v>
       </c>
@@ -1390,7 +1495,12 @@
       <c r="G24" s="4">
         <v>338.93220960000002</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J24" s="5">
         <v>113</v>
       </c>
@@ -1429,7 +1539,12 @@
       <c r="G25" s="4">
         <v>324.57488380000001</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J25" s="1">
         <v>113</v>
       </c>
@@ -1468,7 +1583,12 @@
       <c r="G26" s="4">
         <v>309.56692320000002</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J26" s="5">
         <v>96</v>
       </c>
@@ -1507,7 +1627,12 @@
       <c r="G27" s="4">
         <v>294.45349900000002</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J27" s="1">
         <v>96</v>
       </c>
@@ -1546,7 +1671,12 @@
       <c r="G28" s="4">
         <v>279.72723550000001</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J28" s="5">
         <v>121</v>
       </c>
@@ -1585,7 +1715,12 @@
       <c r="G29" s="4">
         <v>265.81952749999999</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J29" s="1">
         <v>121</v>
       </c>
@@ -1624,7 +1759,12 @@
       <c r="G30" s="4">
         <v>253.09457900000001</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J30" s="5">
         <v>146</v>
       </c>
@@ -1663,7 +1803,12 @@
       <c r="G31" s="4">
         <v>241.84588350000001</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J31" s="1">
         <v>146</v>
       </c>
@@ -1702,7 +1847,12 @@
       <c r="G32" s="4">
         <v>232.2948773</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J32" s="5">
         <v>183</v>
       </c>
@@ -1741,7 +1891,12 @@
       <c r="G33" s="4">
         <v>224.59151030000001</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J33" s="1">
         <v>183</v>
       </c>
@@ -1780,7 +1935,12 @@
       <c r="G34" s="4">
         <v>218.81648759999999</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J34" s="5">
         <v>146</v>
       </c>
@@ -1819,7 +1979,12 @@
       <c r="G35" s="4">
         <v>214.98494650000001</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J35" s="1">
         <v>146</v>
       </c>
@@ -1858,7 +2023,12 @@
       <c r="G36" s="4">
         <v>213.05134670000001</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J36" s="5">
         <v>29</v>
       </c>
@@ -1897,7 +2067,12 @@
       <c r="G37" s="4">
         <v>212.915358</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J37" s="1">
         <v>29</v>
       </c>
@@ -1936,7 +2111,12 @@
       <c r="G38" s="4">
         <v>214.4285467</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J38" s="5">
         <v>71</v>
       </c>
@@ -1975,7 +2155,12 @@
       <c r="G39" s="4">
         <v>217.401667</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J39" s="1">
         <v>71</v>
       </c>
@@ -2014,7 +2199,12 @@
       <c r="G40" s="4">
         <v>221.6123791</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J40" s="5">
         <v>44</v>
       </c>
@@ -2053,7 +2243,12 @@
       <c r="G41" s="4">
         <v>226.81322470000001</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J41" s="1">
         <v>44</v>
       </c>
@@ -2092,7 +2287,12 @@
       <c r="G42" s="4">
         <v>232.73970069999999</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J42" s="5">
         <v>149</v>
       </c>
@@ -2131,7 +2331,12 @@
       <c r="G43" s="4">
         <v>239.11828600000001</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J43" s="1">
         <v>149</v>
       </c>
@@ -2170,7 +2375,12 @@
       <c r="G44" s="4">
         <v>245.67428380000001</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J44" s="5">
         <v>112</v>
       </c>
@@ -2209,7 +2419,12 @@
       <c r="G45" s="4">
         <v>252.13935520000001</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J45" s="1">
         <v>112</v>
       </c>
@@ -2248,7 +2463,12 @@
       <c r="G46" s="4">
         <v>258.25862940000002</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J46" s="5">
         <v>21</v>
       </c>
@@ -2287,7 +2507,12 @@
       <c r="G47" s="4">
         <v>263.7972881</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J47" s="1">
         <v>21</v>
       </c>
@@ -2326,7 +2551,12 @@
       <c r="G48" s="4">
         <v>268.5465317</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J48" s="5">
         <v>142</v>
       </c>
@@ -2365,7 +2595,12 @@
       <c r="G49" s="4">
         <v>272.32884560000002</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J49" s="1">
         <v>142</v>
       </c>
@@ -2404,7 +2639,12 @@
       <c r="G50" s="4">
         <v>275.00249789999998</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J50" s="5">
         <v>70</v>
       </c>
@@ -2443,7 +2683,12 @@
       <c r="G51" s="4">
         <v>276.46520750000002</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J51" s="1">
         <v>70</v>
       </c>
@@ -2482,7 +2727,12 @@
       <c r="G52" s="4">
         <v>276.65693640000001</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J52" s="5">
         <v>86</v>
       </c>
@@ -2521,7 +2771,12 @@
       <c r="G53" s="4">
         <v>275.56176749999997</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J53" s="1">
         <v>86</v>
       </c>
@@ -2560,7 +2815,12 @@
       <c r="G54" s="4">
         <v>273.20884230000001</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J54" s="5">
         <v>224</v>
       </c>
@@ -2597,7 +2857,12 @@
       <c r="G55" s="4">
         <v>269.67234380000002</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J55" s="1">
         <v>224</v>
       </c>
@@ -2634,7 +2899,12 @@
       <c r="G56" s="4">
         <v>265.07051949999999</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J56" s="5">
         <v>313</v>
       </c>
@@ -2671,7 +2941,12 @@
       <c r="G57" s="4">
         <v>259.56375170000001</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J57" s="1">
         <v>313</v>
       </c>
@@ -2708,7 +2983,12 @@
       <c r="G58" s="4">
         <v>253.35169339999999</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J58" s="5">
         <v>432</v>
       </c>
@@ -2745,7 +3025,12 @@
       <c r="G59" s="4">
         <v>246.6694971</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J59" s="1">
         <v>432</v>
       </c>
@@ -2782,7 +3067,12 @@
       <c r="G60" s="4">
         <v>239.7831784</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J60" s="5">
         <v>439</v>
       </c>
@@ -2819,7 +3109,12 @@
       <c r="G61" s="4">
         <v>232.98416259999999</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J61" s="1">
         <v>439</v>
       </c>
@@ -2856,7 +3151,12 @@
       <c r="G62" s="4">
         <v>226.58307869999999</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J62" s="5">
         <v>418</v>
       </c>
@@ -2893,7 +3193,12 @@
       <c r="G63" s="4">
         <v>220.90287090000001</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J63" s="1">
         <v>418</v>
       </c>
@@ -2930,7 +3235,12 @@
       <c r="G64" s="4">
         <v>216.27131360000001</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J64" s="5">
         <v>379</v>
       </c>
@@ -2967,7 +3277,12 @@
       <c r="G65" s="4">
         <v>213.0130226</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J65" s="1">
         <v>379</v>
       </c>
@@ -3004,7 +3319,12 @@
       <c r="G66" s="4">
         <v>211.4410699</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J66" s="5">
         <v>374</v>
       </c>
@@ -3041,7 +3361,12 @@
       <c r="G67" s="4">
         <v>211.84831729999999</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J67" s="1">
         <v>374</v>
       </c>
@@ -3078,7 +3403,12 @@
       <c r="G68" s="4">
         <v>214.4985978</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J68" s="5">
         <v>306</v>
       </c>
@@ -3115,7 +3445,12 @@
       <c r="G69" s="4">
         <v>219.6178816</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J69" s="1">
         <v>306</v>
       </c>
@@ -3152,7 +3487,12 @@
       <c r="G70" s="4">
         <v>227.3855787</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J70" s="5">
         <v>303</v>
       </c>
@@ -3189,7 +3529,12 @@
       <c r="G71" s="4">
         <v>237.92613679999999</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J71" s="1">
         <v>303</v>
       </c>
@@ -3226,7 +3571,12 @@
       <c r="G72" s="4">
         <v>251.30110629999999</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J72" s="5">
         <v>298</v>
       </c>
@@ -3263,7 +3613,12 @@
       <c r="G73" s="4">
         <v>267.50185640000001</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J73" s="1">
         <v>298</v>
       </c>
@@ -3300,7 +3655,12 @@
       <c r="G74" s="4">
         <v>286.44313399999999</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J74" s="5">
         <v>89</v>
       </c>
@@ -3337,7 +3697,12 @@
       <c r="G75" s="4">
         <v>307.9576715</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J75" s="1">
         <v>89</v>
       </c>
@@ -3374,7 +3739,12 @@
       <c r="G76" s="4">
         <v>331.79205710000002</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J76" s="5">
         <v>69</v>
       </c>
@@ -3411,7 +3781,12 @@
       <c r="G77" s="4">
         <v>357.60409750000002</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J77" s="1">
         <v>69</v>
       </c>
@@ -3448,7 +3823,12 @@
       <c r="G78" s="4">
         <v>384.96190589999998</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J78" s="5">
         <v>62</v>
       </c>
@@ -3485,7 +3865,12 @@
       <c r="G79" s="4">
         <v>413.34496819999998</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J79" s="1">
         <v>62</v>
       </c>
@@ -3522,7 +3907,12 @@
       <c r="G80" s="4">
         <v>442.14744400000001</v>
       </c>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J80" s="5">
         <v>109</v>
       </c>
@@ -3559,7 +3949,12 @@
       <c r="G81" s="4">
         <v>470.68397390000001</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J81" s="1">
         <v>109</v>
       </c>
@@ -3596,7 +3991,12 @@
       <c r="G82" s="4">
         <v>498.19827479999998</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J82" s="5">
         <v>25</v>
       </c>
@@ -3633,7 +4033,12 @@
       <c r="G83" s="4">
         <v>523.87481530000002</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J83" s="1">
         <v>25</v>
       </c>
@@ -3670,7 +4075,12 @@
       <c r="G84" s="4">
         <v>546.85387390000005</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J84" s="5">
         <v>30</v>
       </c>
@@ -3707,7 +4117,12 @@
       <c r="G85" s="4">
         <v>566.25029640000002</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J85" s="1">
         <v>30</v>
       </c>
@@ -3744,7 +4159,12 @@
       <c r="G86" s="4">
         <v>581.17627570000002</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J86" s="5">
         <v>116</v>
       </c>
@@ -3781,7 +4201,12 @@
       <c r="G87" s="4">
         <v>590.76849159999995</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J87" s="1">
         <v>116</v>
       </c>
@@ -3818,7 +4243,12 @@
       <c r="G88" s="4">
         <v>594.21995800000002</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J88" s="5">
         <v>130</v>
       </c>
@@ -3855,7 +4285,12 @@
       <c r="G89" s="4">
         <v>590.8169355</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="H89" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J89" s="1">
         <v>130</v>
       </c>
@@ -3892,7 +4327,12 @@
       <c r="G90" s="4">
         <v>579.9812786</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J90" s="5">
         <v>134</v>
       </c>
@@ -3929,7 +4369,12 @@
       <c r="G91" s="4">
         <v>561.31859829999996</v>
       </c>
-      <c r="H91" s="1"/>
+      <c r="H91" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J91" s="1">
         <v>134</v>
       </c>
@@ -3966,7 +4411,12 @@
       <c r="G92" s="4">
         <v>534.67263119999996</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J92" s="5">
         <v>121</v>
       </c>
@@ -4003,7 +4453,12 @@
       <c r="G93" s="4">
         <v>500.18621739999998</v>
       </c>
-      <c r="H93" s="1"/>
+      <c r="H93" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J93" s="1">
         <v>121</v>
       </c>
@@ -4040,7 +4495,12 @@
       <c r="G94" s="4">
         <v>458.36930080000002</v>
       </c>
-      <c r="H94" s="1"/>
+      <c r="H94" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J94" s="5">
         <v>29</v>
       </c>
@@ -4077,7 +4537,12 @@
       <c r="G95" s="4">
         <v>410.174375</v>
       </c>
-      <c r="H95" s="1"/>
+      <c r="H95" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J95" s="1">
         <v>29</v>
       </c>
@@ -4114,7 +4579,12 @@
       <c r="G96" s="4">
         <v>357.07981210000003</v>
       </c>
-      <c r="H96" s="1"/>
+      <c r="H96" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J96" s="5">
         <v>61</v>
       </c>
@@ -4151,7 +4621,12 @@
       <c r="G97" s="4">
         <v>301.18151820000003</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J97" s="6">
         <v>61</v>
       </c>
@@ -4188,7 +4663,12 @@
       <c r="G98" s="4">
         <v>245.293375</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="H98" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J98" s="5">
         <v>46</v>
       </c>
@@ -4225,7 +4705,12 @@
       <c r="G99" s="4">
         <v>193.05693450000001</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J99" s="6">
         <v>46</v>
       </c>
@@ -4262,7 +4747,12 @@
       <c r="G100" s="4">
         <v>149.06084580000001</v>
       </c>
-      <c r="H100" s="1"/>
+      <c r="H100" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J100" s="5">
         <v>126</v>
       </c>
@@ -4299,7 +4789,12 @@
       <c r="G101" s="4">
         <v>118.9705063</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J101" s="6">
         <v>126</v>
       </c>
@@ -4336,7 +4831,12 @@
       <c r="G102" s="4">
         <v>109.66843470000001</v>
       </c>
-      <c r="H102" s="1"/>
+      <c r="H102" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J102" s="5">
         <v>369</v>
       </c>
@@ -4373,7 +4873,12 @@
       <c r="G103" s="4">
         <v>129.4058823</v>
       </c>
-      <c r="H103" s="1"/>
+      <c r="H103" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J103" s="6">
         <v>369</v>
       </c>
@@ -4410,7 +4915,12 @@
       <c r="G104" s="4">
         <v>187.96620250000001</v>
       </c>
-      <c r="H104" s="1"/>
+      <c r="H104" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J104" s="5">
         <v>469</v>
       </c>
@@ -4447,7 +4957,12 @@
       <c r="G105" s="4">
         <v>296.84051410000001</v>
       </c>
-      <c r="H105" s="1"/>
+      <c r="H105" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J105" s="6">
         <v>469</v>
       </c>
@@ -4484,7 +4999,12 @@
       <c r="G106" s="4">
         <v>469.41620330000001</v>
       </c>
-      <c r="H106" s="1"/>
+      <c r="H106" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J106" s="5">
         <v>540</v>
       </c>
